--- a/statistics assessment.xlsx
+++ b/statistics assessment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/47491c2f95433903/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkaml\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F6987C6-5A00-404A-A078-C1569131B3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A440594-6AF6-4DC6-80C3-FAEB27281384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0F4DAF1C-A5C9-45D6-B86D-3064E3FF1219}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>girls</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>null hypothesis rejected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>CRITICAL VALUE &lt; SATATISTIC VALUE</t>
   </si>
 </sst>
 </file>
@@ -149,12 +155,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -205,7 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -213,6 +225,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -229,10 +242,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -534,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174424B8-FBDA-447A-9FFB-738E57B1B766}">
   <dimension ref="A3:G123"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -792,7 +801,7 @@
       <c r="B24">
         <v>82</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1388,7 +1397,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1397,7 +1406,7 @@
     <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
     <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -1467,10 +1476,12 @@
         <v>450</v>
       </c>
       <c r="F4" s="3">
-        <v>178.12</v>
+        <f>D4*B6/D6</f>
+        <v>178.125</v>
       </c>
       <c r="G4" s="3">
-        <v>271.87</v>
+        <f>D4*C6/D6</f>
+        <v>271.875</v>
       </c>
       <c r="H4" s="3"/>
       <c r="J4" s="3" t="s">
@@ -1478,11 +1489,11 @@
       </c>
       <c r="K4" s="3">
         <f>(B4-F4)^2/F4</f>
-        <v>9.846925668088927</v>
+        <v>9.8442982456140342</v>
       </c>
       <c r="L4" s="3">
         <f>(C4-G4)^2/G4</f>
-        <v>6.4482910950086456</v>
+        <v>6.4497126436781613</v>
       </c>
       <c r="M4" s="3"/>
     </row>
@@ -1501,10 +1512,12 @@
         <v>990</v>
       </c>
       <c r="F5" s="3">
-        <v>391.87</v>
+        <f>D5*B6/D6</f>
+        <v>391.875</v>
       </c>
       <c r="G5" s="3">
-        <v>598.12</v>
+        <f>D5*C6/D6</f>
+        <v>598.125</v>
       </c>
       <c r="H5" s="3"/>
       <c r="J5" s="3" t="s">
@@ -1512,11 +1525,11 @@
       </c>
       <c r="K5" s="3">
         <f>(B5-F5)^2/F5</f>
-        <v>4.4736695843009171</v>
+        <v>4.4746810207336525</v>
       </c>
       <c r="L5" s="3">
         <f>(C5-G5)^2/G5</f>
-        <v>2.9324122249715772</v>
+        <v>2.931687565308255</v>
       </c>
       <c r="M5" s="3"/>
     </row>
@@ -1546,7 +1559,12 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3">
         <f>SUM(K4:L5)</f>
-        <v>23.701298572370067</v>
+        <v>23.700379475334103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1570,7 +1588,7 @@
       <c r="F14" t="s">
         <v>23</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="5">
         <v>23.7</v>
       </c>
     </row>
@@ -1581,13 +1599,18 @@
       <c r="F16" t="s">
         <v>24</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="5">
         <f>_xlfn.CHISQ.INV.RT(G12,1)</f>
         <v>3.8414588206941236</v>
       </c>
     </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F20" t="s">
+      <c r="F20" s="5" t="s">
         <v>25</v>
       </c>
     </row>
